--- a/Engenharia de Software/Base de Dados Fisisca.xlsx
+++ b/Engenharia de Software/Base de Dados Fisisca.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>Tipo de Cliente</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>101cm</t>
+  </si>
+  <si>
+    <t>Tem Doencas</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -289,14 +298,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +590,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A24" sqref="A24:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,22 +610,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -873,21 +882,21 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -964,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -977,139 +986,67 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>3</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>4</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>5</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1159,14 +1096,14 @@
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>26</v>
+      <c r="J22" s="2">
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -1180,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>27</v>
@@ -1197,26 +1134,20 @@
       <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>26</v>
+      <c r="J23" s="2">
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="E24" s="2">
         <v>2</v>
       </c>
@@ -1229,8 +1160,8 @@
       <c r="I24" s="2">
         <v>2</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>26</v>
+      <c r="J24" s="2">
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -1240,15 +1171,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="E25" s="2">
         <v>3</v>
       </c>
@@ -1258,29 +1183,15 @@
       <c r="G25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="E26" s="2">
         <v>4</v>
       </c>
@@ -1290,56 +1201,30 @@
       <c r="G26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="2">
-        <v>4</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="2">
-        <v>4</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="2">
-        <v>4</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
